--- a/Tampa Bay Devil Rays.xlsx
+++ b/Tampa Bay Devil Rays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,9 +22,15 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>TBA</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,235 +429,268 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1998</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>2506293</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>63</v>
+      </c>
+      <c r="F2">
         <v>368907</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>75669</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>27280000</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1562827</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3">
         <v>462935</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>88274</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>38870000</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1449673</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
         <v>404023</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>72943</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>62765129</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>1298365</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
         <v>374949</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>64341</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>56980000</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>1065742</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>55</v>
+      </c>
+      <c r="F6">
         <v>412566</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>67564</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>34380000</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>1058695</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="F7">
         <v>389075</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>61075</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>19630000</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>1274911</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
         <v>442665</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>66771</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>29556667</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>1141669</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
         <v>498597</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>72558</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>29679067</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>1368950</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>61</v>
+      </c>
+      <c r="F10">
         <v>486324</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>68364</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>34917967</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1387603</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
         <v>509193</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>69174</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>24123500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
